--- a/Finflux Automation Excels/Client/4518-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-REPAYONTIMELESS-OVERDUE-FLAT-COLLSHEETON09JAN.xlsx
+++ b/Finflux Automation Excels/Client/4518-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-REPAYONTIMELESS-OVERDUE-FLAT-COLLSHEETON09JAN.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="7"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="NewLoanInput" sheetId="14" r:id="rId6"/>
     <sheet name="Summary" sheetId="16" r:id="rId7"/>
     <sheet name="Repayment schedule" sheetId="17" r:id="rId8"/>
-    <sheet name="Transactions" sheetId="18" r:id="rId9"/>
-    <sheet name="Charges" sheetId="25" r:id="rId10"/>
-    <sheet name="Modify Transaction" sheetId="24" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId12"/>
+    <sheet name="Modify Transaction1" sheetId="27" r:id="rId9"/>
+    <sheet name="Transactions" sheetId="18" r:id="rId10"/>
+    <sheet name="Charges" sheetId="25" r:id="rId11"/>
+    <sheet name="Modify Transaction" sheetId="24" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>submittedon</t>
   </si>
@@ -299,9 +300,6 @@
     <t>repaymenttransactionamount</t>
   </si>
   <si>
-    <t>445.89   $</t>
-  </si>
-  <si>
     <t>center4518</t>
   </si>
   <si>
@@ -315,6 +313,18 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>OverDueTillDate</t>
+  </si>
+  <si>
+    <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>1,291.78   $</t>
   </si>
 </sst>
 </file>
@@ -325,10 +335,17 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -442,26 +459,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,24 +487,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -498,17 +515,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -942,7 +960,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
@@ -953,7 +971,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -979,6 +997,121 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>61</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="21">
+        <v>42013</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="20">
+        <v>500</v>
+      </c>
+      <c r="F2" s="20">
+        <v>476.92</v>
+      </c>
+      <c r="G2" s="20">
+        <v>23.08</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>9523.08</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>52</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42006</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="24">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1013,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1064,7 +1197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -1715,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1730,7 +1863,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1811,12 +1944,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1832,7 +1966,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="10">
-        <v>42013</v>
+        <v>42020</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1848,7 +1982,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1856,7 +1990,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1877,7 +2011,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1895,7 +2029,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="26">
-        <v>42013</v>
+        <v>42014</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1946,7 +2080,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2143,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -2768,113 +2902,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
-        <v>61</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="21">
-        <v>42013</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="20">
-        <v>500</v>
-      </c>
-      <c r="F2" s="20">
-        <v>476.92</v>
-      </c>
-      <c r="G2" s="20">
-        <v>23.08</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
-        <v>9523.08</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
-        <v>52</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42006</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="24">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>10000</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="10">
+        <v>42020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
